--- a/Test Data/TC_76728_Verify_Other_Slot_Card_Node_Count.xlsx
+++ b/Test Data/TC_76728_Verify_Other_Slot_Card_Node_Count.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFCFFA8-E6A7-44D1-A16C-12F130855957}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,9 +80,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>PCH800</t>
-  </si>
-  <si>
     <t>PNI800</t>
   </si>
   <si>
@@ -142,12 +138,15 @@
   </si>
   <si>
     <t>Other Slot Cards  (7 of 18)</t>
+  </si>
+  <si>
+    <t>PCH800 5.0A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -566,11 +565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +577,7 @@
     <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -603,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -620,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
@@ -636,17 +635,17 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>20</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -690,22 +689,22 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>9</v>
@@ -717,33 +716,33 @@
         <v>14</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>12</v>
@@ -755,39 +754,39 @@
         <v>12</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="D10" s="5">
         <v>3</v>
@@ -820,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TC_76728_Verify_Other_Slot_Card_Node_Count.xlsx
+++ b/Test Data/TC_76728_Verify_Other_Slot_Card_Node_Count.xlsx
@@ -1,36 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EEE4C9-AA2C-47D2-8302-37C06A22D5B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="38">
   <si>
     <t>Color Codes</t>
   </si>
@@ -141,12 +137,15 @@
   </si>
   <si>
     <t>PCH800 5.0A</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -565,11 +564,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,7 +777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -792,37 +791,37 @@
         <v>3</v>
       </c>
       <c r="E10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
       </c>
       <c r="H10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="5">
         <v>0</v>
       </c>
       <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="14" t="b">
         <v>0</v>
-      </c>
-      <c r="K10" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>15</v>
       </c>
       <c r="M10" s="14" t="b">
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P10" s="14" t="s">
         <v>20</v>
@@ -835,4 +834,277 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A7C4BC-AE0D-4A45-8EDC-FC63687911A6}">
+  <dimension ref="A1:P10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="4"/>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>